--- a/MainTop/остатки/остатки_10.xlsx
+++ b/MainTop/остатки/остатки_10.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Max\Documents\GitHub\Ozon_upload\MainTop\остатки\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90EE5CEE-7ED0-4412-A4C2-637984926684}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{237AA06C-0A60-4151-A263-19F265521EE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>Артикул</t>
   </si>
@@ -55,6 +55,72 @@
   </si>
   <si>
     <t>Термонаклейка Медуза в очках и с змеями</t>
+  </si>
+  <si>
+    <t>Термонаклейка Рука жест рок металл</t>
+  </si>
+  <si>
+    <t>Термонаклейка Треснувшая античная скульптура</t>
+  </si>
+  <si>
+    <t>Термонаклейка Не буди лихо пока тихо</t>
+  </si>
+  <si>
+    <t>Термонаклейка Девушка в золотых трещинах</t>
+  </si>
+  <si>
+    <t>Термонаклейка Черный Кот Звезды Астрология</t>
+  </si>
+  <si>
+    <t>Термонаклейка Сердце разынй окрас</t>
+  </si>
+  <si>
+    <t>Термонаклейка Одри Хепбёрн буквы</t>
+  </si>
+  <si>
+    <t>Термонаклейка Сердце Love is Wild</t>
+  </si>
+  <si>
+    <t>Термонаклейка Мэрилин Монро буквы</t>
+  </si>
+  <si>
+    <t>Термонаклейка Девушка с колибри роза кольцо</t>
+  </si>
+  <si>
+    <t>Термонаклейка Сердце Бабочки летят</t>
+  </si>
+  <si>
+    <t>Термонаклейка Прикосновение рук Сотворения Адама</t>
+  </si>
+  <si>
+    <t>Термонаклейка Балерина в белом платье</t>
+  </si>
+  <si>
+    <t>Термонаклейка Девушка ebis ono by horse</t>
+  </si>
+  <si>
+    <t>Термонаклейка Эйфелева башня и лицо девушки</t>
+  </si>
+  <si>
+    <t>Термонаклейка Девушка в белом на берегу моря</t>
+  </si>
+  <si>
+    <t>Термонаклейка Девушка в синем у моря</t>
+  </si>
+  <si>
+    <t>Термонаклейка Девушка в ромашковом поле</t>
+  </si>
+  <si>
+    <t>Термонаклейка Девушка в поле розовых цветов</t>
+  </si>
+  <si>
+    <t>Термонаклейка Девушка холст растут цветы</t>
+  </si>
+  <si>
+    <t>Термонаклейка Девушка силует обнимают природа</t>
+  </si>
+  <si>
+    <t>Термонаклейка Девушка Силует Закат</t>
   </si>
 </sst>
 </file>
@@ -402,8 +468,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O13" sqref="O13"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -484,79 +550,182 @@
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
+      <c r="A10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="1">
+        <v>2</v>
+      </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
+      <c r="A12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="1">
+        <v>2</v>
+      </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
+      <c r="A13" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="1">
+        <v>2</v>
+      </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
+      <c r="A14" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" s="1">
+        <v>5</v>
+      </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
+      <c r="A15" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" s="1">
+        <v>4</v>
+      </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
-    </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B17" s="2"/>
-    </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B18" s="2"/>
-    </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B19" s="2"/>
-    </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B20" s="2"/>
-    </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B21" s="2"/>
-    </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B22" s="2"/>
-    </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B23" s="2"/>
-    </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B24" s="2"/>
-    </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B25" s="2"/>
-    </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B26" s="2"/>
-    </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B27" s="2"/>
-    </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B28" s="2"/>
-    </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B29" s="2"/>
-    </row>
-    <row r="30" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B30" s="2"/>
-    </row>
-    <row r="31" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B31" s="2"/>
-    </row>
-    <row r="32" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>19</v>
+      </c>
+      <c r="B19" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>20</v>
+      </c>
+      <c r="B20" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>21</v>
+      </c>
+      <c r="B21" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>22</v>
+      </c>
+      <c r="B22" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>25</v>
+      </c>
+      <c r="B25" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>26</v>
+      </c>
+      <c r="B26" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>27</v>
+      </c>
+      <c r="B27" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>28</v>
+      </c>
+      <c r="B28" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>29</v>
+      </c>
+      <c r="B29" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>30</v>
+      </c>
+      <c r="B30" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>31</v>
+      </c>
+      <c r="B31" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B32" s="2"/>
     </row>
     <row r="33" spans="2:2" x14ac:dyDescent="0.25">
